--- a/FinalResultsPerLanguage/Rust.xlsx
+++ b/FinalResultsPerLanguage/Rust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BDB2C4-03F9-478C-B587-0DC8A0D98DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE97FD8-C7C2-421B-9CD2-AD6069AFAF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K121"/>
+      <selection activeCell="D2" sqref="D2:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,13 +432,13 @@
         <v>5.494058463</v>
       </c>
       <c r="D2">
-        <v>2.7517877E-2</v>
+        <v>3.1965239999999999E-2</v>
       </c>
       <c r="E2">
         <v>9.2131060589999993</v>
       </c>
       <c r="F2">
-        <v>8.7538872000000004E-2</v>
+        <v>8.0019660000000006E-2</v>
       </c>
       <c r="G2">
         <v>0.21419335</v>
@@ -467,13 +467,13 @@
         <v>5.643563898</v>
       </c>
       <c r="D3">
-        <v>4.0905728000000002E-2</v>
+        <v>3.2025677000000002E-2</v>
       </c>
       <c r="E3">
         <v>3.1373572140000001</v>
       </c>
       <c r="F3">
-        <v>0.130246215</v>
+        <v>0.13761056399999999</v>
       </c>
       <c r="G3">
         <v>0.31688797800000001</v>
@@ -502,13 +502,13 @@
         <v>6.0895202409999998</v>
       </c>
       <c r="D4">
-        <v>2.8222514000000001E-2</v>
+        <v>3.7494800000000002E-2</v>
       </c>
       <c r="E4">
         <v>3.1399357229999998</v>
       </c>
       <c r="F4">
-        <v>0.15558820200000001</v>
+        <v>0.145304238</v>
       </c>
       <c r="G4">
         <v>0.336413819</v>
@@ -537,13 +537,13 @@
         <v>5.8028782540000003</v>
       </c>
       <c r="D5">
-        <v>4.9500799999999998E-2</v>
+        <v>3.2160053000000001E-2</v>
       </c>
       <c r="E5">
         <v>3.1363967420000001</v>
       </c>
       <c r="F5">
-        <v>0.15436833599999999</v>
+        <v>0.151481491</v>
       </c>
       <c r="G5">
         <v>0.355402049</v>
@@ -572,13 +572,13 @@
         <v>5.8056946739999997</v>
       </c>
       <c r="D6">
-        <v>4.5745380000000002E-2</v>
+        <v>4.7369285999999997E-2</v>
       </c>
       <c r="E6">
         <v>3.1425324350000001</v>
       </c>
       <c r="F6">
-        <v>0.14740051100000001</v>
+        <v>0.157891373</v>
       </c>
       <c r="G6">
         <v>0.35868304400000001</v>
@@ -607,13 +607,13 @@
         <v>5.92786905</v>
       </c>
       <c r="D7">
-        <v>3.6153998E-2</v>
+        <v>3.6345448000000002E-2</v>
       </c>
       <c r="E7">
         <v>3.1520712209999999</v>
       </c>
       <c r="F7">
-        <v>0.15288085500000001</v>
+        <v>0.160041396</v>
       </c>
       <c r="G7">
         <v>0.38327817800000002</v>
@@ -642,13 +642,13 @@
         <v>5.7162666240000002</v>
       </c>
       <c r="D8">
-        <v>5.2222277999999997E-2</v>
+        <v>3.3650302E-2</v>
       </c>
       <c r="E8">
         <v>3.150103637</v>
       </c>
       <c r="F8">
-        <v>0.150988131</v>
+        <v>0.15895605300000001</v>
       </c>
       <c r="G8">
         <v>0.35656279600000002</v>
@@ -677,13 +677,13 @@
         <v>5.8043074700000004</v>
       </c>
       <c r="D9">
-        <v>5.1749389999999999E-2</v>
+        <v>4.1259361000000001E-2</v>
       </c>
       <c r="E9">
         <v>3.1489290090000002</v>
       </c>
       <c r="F9">
-        <v>0.13111777499999999</v>
+        <v>0.15455735800000001</v>
       </c>
       <c r="G9">
         <v>0.36441960499999998</v>
@@ -712,13 +712,13 @@
         <v>5.7189577649999999</v>
       </c>
       <c r="D10">
-        <v>4.9688633000000003E-2</v>
+        <v>3.8309284999999998E-2</v>
       </c>
       <c r="E10">
         <v>3.1660172809999998</v>
       </c>
       <c r="F10">
-        <v>0.13550789299999999</v>
+        <v>0.13197613599999999</v>
       </c>
       <c r="G10">
         <v>0.37141214500000003</v>
@@ -747,13 +747,13 @@
         <v>5.7378715209999998</v>
       </c>
       <c r="D11">
-        <v>5.7634185999999997E-2</v>
+        <v>5.0024858999999998E-2</v>
       </c>
       <c r="E11">
         <v>3.164121234</v>
       </c>
       <c r="F11">
-        <v>0.14863256699999999</v>
+        <v>0.15072904500000001</v>
       </c>
       <c r="G11">
         <v>0.35168726300000003</v>
@@ -782,13 +782,13 @@
         <v>5.7680626459999997</v>
       </c>
       <c r="D12">
-        <v>3.7995471000000003E-2</v>
+        <v>3.6125573000000001E-2</v>
       </c>
       <c r="E12">
         <v>3.1948095369999998</v>
       </c>
       <c r="F12">
-        <v>0.115306825</v>
+        <v>0.14902753699999999</v>
       </c>
       <c r="G12">
         <v>0.37255660800000001</v>
@@ -817,13 +817,13 @@
         <v>6.0960722550000002</v>
       </c>
       <c r="D13">
-        <v>4.8481600999999999E-2</v>
+        <v>4.1821905999999999E-2</v>
       </c>
       <c r="E13">
         <v>3.170370133</v>
       </c>
       <c r="F13">
-        <v>0.13839215999999999</v>
+        <v>0.141941242</v>
       </c>
       <c r="G13">
         <v>0.36023485599999999</v>
@@ -852,13 +852,13 @@
         <v>6.5079534109999999</v>
       </c>
       <c r="D14">
-        <v>5.0333772999999998E-2</v>
+        <v>3.6776049999999998E-2</v>
       </c>
       <c r="E14">
         <v>3.2140883109999998</v>
       </c>
       <c r="F14">
-        <v>0.136765634</v>
+        <v>0.15053174599999999</v>
       </c>
       <c r="G14">
         <v>0.371053356</v>
@@ -887,13 +887,13 @@
         <v>6.5489240449999997</v>
       </c>
       <c r="D15">
-        <v>5.2791250999999997E-2</v>
+        <v>4.9787304999999997E-2</v>
       </c>
       <c r="E15">
         <v>3.1824522329999998</v>
       </c>
       <c r="F15">
-        <v>0.15257263500000001</v>
+        <v>0.133315088</v>
       </c>
       <c r="G15">
         <v>0.36826881700000003</v>
@@ -922,13 +922,13 @@
         <v>6.6864409279999997</v>
       </c>
       <c r="D16">
-        <v>5.4546631999999998E-2</v>
+        <v>3.9874672E-2</v>
       </c>
       <c r="E16">
         <v>3.28640431</v>
       </c>
       <c r="F16">
-        <v>0.144130703</v>
+        <v>0.15043114199999999</v>
       </c>
       <c r="G16">
         <v>0.36001484299999997</v>
@@ -957,13 +957,13 @@
         <v>6.4146187210000001</v>
       </c>
       <c r="D17">
-        <v>4.6262378999999999E-2</v>
+        <v>5.0202241000000002E-2</v>
       </c>
       <c r="E17">
         <v>3.2143010159999998</v>
       </c>
       <c r="F17">
-        <v>0.13992668899999999</v>
+        <v>0.133376684</v>
       </c>
       <c r="G17">
         <v>0.37036952899999998</v>
@@ -992,13 +992,13 @@
         <v>6.4925473849999999</v>
       </c>
       <c r="D18">
-        <v>5.0975457000000002E-2</v>
+        <v>4.3934322999999997E-2</v>
       </c>
       <c r="E18">
         <v>3.211111796</v>
       </c>
       <c r="F18">
-        <v>0.102755918</v>
+        <v>8.4666105000000005E-2</v>
       </c>
       <c r="G18">
         <v>0.36667717999999999</v>
@@ -1027,13 +1027,13 @@
         <v>6.1744972880000004</v>
       </c>
       <c r="D19">
-        <v>4.3615806999999999E-2</v>
+        <v>3.7190635E-2</v>
       </c>
       <c r="E19">
         <v>3.211970693</v>
       </c>
       <c r="F19">
-        <v>6.1658698999999997E-2</v>
+        <v>7.1824810000000003E-2</v>
       </c>
       <c r="G19">
         <v>0.35462393399999997</v>
@@ -1062,13 +1062,13 @@
         <v>5.8002549569999999</v>
       </c>
       <c r="D20">
-        <v>5.3703590000000002E-2</v>
+        <v>4.2898580999999998E-2</v>
       </c>
       <c r="E20">
         <v>3.2141926390000002</v>
       </c>
       <c r="F20">
-        <v>7.7562046999999995E-2</v>
+        <v>6.5124639999999998E-2</v>
       </c>
       <c r="G20">
         <v>0.38024038900000001</v>
@@ -1097,13 +1097,13 @@
         <v>5.6671460649999998</v>
       </c>
       <c r="D21">
-        <v>4.5834272000000002E-2</v>
+        <v>3.8396812000000002E-2</v>
       </c>
       <c r="E21">
         <v>3.278657956</v>
       </c>
       <c r="F21">
-        <v>7.3536119999999996E-2</v>
+        <v>7.0850477999999995E-2</v>
       </c>
       <c r="G21">
         <v>0.35656986499999999</v>
@@ -1132,13 +1132,13 @@
         <v>5.677997435</v>
       </c>
       <c r="D22">
-        <v>5.2661922999999999E-2</v>
+        <v>4.259603E-2</v>
       </c>
       <c r="E22">
         <v>3.213118959</v>
       </c>
       <c r="F22">
-        <v>6.8232838000000004E-2</v>
+        <v>6.3015990999999993E-2</v>
       </c>
       <c r="G22">
         <v>0.37021008799999999</v>
@@ -1167,13 +1167,13 @@
         <v>5.6804167059999999</v>
       </c>
       <c r="D23">
-        <v>4.6428877E-2</v>
+        <v>4.2427029999999998E-2</v>
       </c>
       <c r="E23">
         <v>3.2088872080000002</v>
       </c>
       <c r="F23">
-        <v>7.5674669E-2</v>
+        <v>7.2775659000000006E-2</v>
       </c>
       <c r="G23">
         <v>0.36944434399999998</v>
@@ -1202,13 +1202,13 @@
         <v>5.6821713689999997</v>
       </c>
       <c r="D24">
-        <v>5.6355400999999999E-2</v>
+        <v>4.5415124000000001E-2</v>
       </c>
       <c r="E24">
         <v>3.264518233</v>
       </c>
       <c r="F24">
-        <v>6.4627410999999996E-2</v>
+        <v>8.0796273000000002E-2</v>
       </c>
       <c r="G24">
         <v>0.37790277</v>
@@ -1237,13 +1237,13 @@
         <v>5.740096919</v>
       </c>
       <c r="D25">
-        <v>3.7320916000000003E-2</v>
+        <v>4.0630123999999997E-2</v>
       </c>
       <c r="E25">
         <v>3.6740523270000001</v>
       </c>
       <c r="F25">
-        <v>7.9770745000000004E-2</v>
+        <v>6.3747528999999997E-2</v>
       </c>
       <c r="G25">
         <v>0.35717595299999999</v>
@@ -1272,13 +1272,13 @@
         <v>5.8251663000000002</v>
       </c>
       <c r="D26">
-        <v>5.5842630999999997E-2</v>
+        <v>4.0877285999999999E-2</v>
       </c>
       <c r="E26">
         <v>4.1377294600000001</v>
       </c>
       <c r="F26">
-        <v>6.3212367000000005E-2</v>
+        <v>7.8353617E-2</v>
       </c>
       <c r="G26">
         <v>0.39312418599999999</v>
@@ -1307,13 +1307,13 @@
         <v>5.863933265</v>
       </c>
       <c r="D27">
-        <v>3.8458778999999998E-2</v>
+        <v>4.2921358E-2</v>
       </c>
       <c r="E27">
         <v>3.8173393189999998</v>
       </c>
       <c r="F27">
-        <v>8.0155657000000005E-2</v>
+        <v>6.5077195000000004E-2</v>
       </c>
       <c r="G27">
         <v>0.36237240799999998</v>
@@ -1342,13 +1342,13 @@
         <v>6.2086092529999997</v>
       </c>
       <c r="D28">
-        <v>4.7942108999999997E-2</v>
+        <v>4.3911845999999997E-2</v>
       </c>
       <c r="E28">
         <v>3.8256205130000001</v>
       </c>
       <c r="F28">
-        <v>6.8068525000000005E-2</v>
+        <v>7.4468785999999995E-2</v>
       </c>
       <c r="G28">
         <v>0.35602853899999998</v>
@@ -1377,13 +1377,13 @@
         <v>6.3447555879999999</v>
       </c>
       <c r="D29">
-        <v>4.1712079999999999E-2</v>
+        <v>3.0026422000000001E-2</v>
       </c>
       <c r="E29">
         <v>3.7210031350000001</v>
       </c>
       <c r="F29">
-        <v>7.1877990000000003E-2</v>
+        <v>7.4484255999999999E-2</v>
       </c>
       <c r="G29">
         <v>0.37670943699999998</v>
@@ -1412,13 +1412,13 @@
         <v>6.5576842400000004</v>
       </c>
       <c r="D30">
-        <v>4.7299690999999998E-2</v>
+        <v>5.3158563999999998E-2</v>
       </c>
       <c r="E30">
         <v>3.8384697220000001</v>
       </c>
       <c r="F30">
-        <v>6.7627794000000005E-2</v>
+        <v>7.0811890000000002E-2</v>
       </c>
       <c r="G30">
         <v>0.382262824</v>
@@ -1447,13 +1447,13 @@
         <v>6.740358305</v>
       </c>
       <c r="D31">
-        <v>4.4468961000000001E-2</v>
+        <v>5.1908438000000001E-2</v>
       </c>
       <c r="E31">
         <v>4.1626045899999999</v>
       </c>
       <c r="F31">
-        <v>7.5245403000000002E-2</v>
+        <v>6.6040254000000007E-2</v>
       </c>
       <c r="G31">
         <v>0.48593440399999999</v>
@@ -1482,13 +1482,13 @@
         <v>6.6912380130000004</v>
       </c>
       <c r="D32">
-        <v>4.1676311000000001E-2</v>
+        <v>3.5658449000000002E-2</v>
       </c>
       <c r="E32">
         <v>3.8676753769999999</v>
       </c>
       <c r="F32">
-        <v>5.9410319000000003E-2</v>
+        <v>8.0051391999999999E-2</v>
       </c>
       <c r="G32">
         <v>0.49064494199999997</v>
@@ -1517,13 +1517,13 @@
         <v>6.5403739280000002</v>
       </c>
       <c r="D33">
-        <v>4.0692219000000002E-2</v>
+        <v>4.8180053E-2</v>
       </c>
       <c r="E33">
         <v>3.876715989</v>
       </c>
       <c r="F33">
-        <v>7.7605828000000002E-2</v>
+        <v>7.4871919999999995E-2</v>
       </c>
       <c r="G33">
         <v>0.46249687099999998</v>
@@ -1552,13 +1552,13 @@
         <v>6.2803042019999999</v>
       </c>
       <c r="D34">
-        <v>4.1319611999999999E-2</v>
+        <v>4.8566037999999999E-2</v>
       </c>
       <c r="E34">
         <v>3.9282005770000001</v>
       </c>
       <c r="F34">
-        <v>6.3509300000000005E-2</v>
+        <v>6.6873559999999999E-2</v>
       </c>
       <c r="G34">
         <v>0.43033091899999998</v>
@@ -1587,13 +1587,13 @@
         <v>5.9723484789999999</v>
       </c>
       <c r="D35">
-        <v>3.5583702000000002E-2</v>
+        <v>3.4956617000000002E-2</v>
       </c>
       <c r="E35">
         <v>3.7322918390000002</v>
       </c>
       <c r="F35">
-        <v>7.8307153000000004E-2</v>
+        <v>7.1701841000000002E-2</v>
       </c>
       <c r="G35">
         <v>0.440657668</v>
@@ -1622,13 +1622,13 @@
         <v>5.9272062080000003</v>
       </c>
       <c r="D36">
-        <v>3.5905661999999998E-2</v>
+        <v>3.4152226000000001E-2</v>
       </c>
       <c r="E36">
         <v>3.6920415270000002</v>
       </c>
       <c r="F36">
-        <v>6.1805882999999999E-2</v>
+        <v>7.3499596E-2</v>
       </c>
       <c r="G36">
         <v>0.43305480899999999</v>
@@ -1657,13 +1657,13 @@
         <v>5.8785552670000003</v>
       </c>
       <c r="D37">
-        <v>4.2201845000000002E-2</v>
+        <v>4.4323957999999997E-2</v>
       </c>
       <c r="E37">
         <v>3.4910782810000001</v>
       </c>
       <c r="F37">
-        <v>7.7959290000000001E-2</v>
+        <v>7.1565388999999993E-2</v>
       </c>
       <c r="G37">
         <v>0.43395344899999999</v>
@@ -1692,13 +1692,13 @@
         <v>5.8734598079999998</v>
       </c>
       <c r="D38">
-        <v>3.8690006999999998E-2</v>
+        <v>3.7259609999999999E-2</v>
       </c>
       <c r="E38">
         <v>3.3689349420000001</v>
       </c>
       <c r="F38">
-        <v>6.2945846E-2</v>
+        <v>7.6399850000000005E-2</v>
       </c>
       <c r="G38">
         <v>0.43146715600000002</v>
@@ -1727,13 +1727,13 @@
         <v>5.8567159909999997</v>
       </c>
       <c r="D39">
-        <v>4.4515308000000003E-2</v>
+        <v>3.0588358999999999E-2</v>
       </c>
       <c r="E39">
         <v>3.347618142</v>
       </c>
       <c r="F39">
-        <v>7.9675121000000002E-2</v>
+        <v>7.2455356999999998E-2</v>
       </c>
       <c r="G39">
         <v>0.42049385500000003</v>
@@ -1762,13 +1762,13 @@
         <v>5.9114910009999999</v>
       </c>
       <c r="D40">
-        <v>3.3106037999999997E-2</v>
+        <v>4.5395016000000003E-2</v>
       </c>
       <c r="E40">
         <v>3.373852206</v>
       </c>
       <c r="F40">
-        <v>6.6853838999999998E-2</v>
+        <v>7.4852794E-2</v>
       </c>
       <c r="G40">
         <v>0.44400413599999999</v>
@@ -1797,13 +1797,13 @@
         <v>6.3985105249999998</v>
       </c>
       <c r="D41">
-        <v>4.2467427000000002E-2</v>
+        <v>5.0772988999999998E-2</v>
       </c>
       <c r="E41">
         <v>3.3584623100000002</v>
       </c>
       <c r="F41">
-        <v>7.4819212999999996E-2</v>
+        <v>6.4572000000000004E-2</v>
       </c>
       <c r="G41">
         <v>0.42395066999999997</v>
@@ -1832,13 +1832,13 @@
         <v>6.3682115479999997</v>
       </c>
       <c r="D42">
-        <v>3.8706639000000001E-2</v>
+        <v>3.9351100999999999E-2</v>
       </c>
       <c r="E42">
         <v>3.3703795169999999</v>
       </c>
       <c r="F42">
-        <v>6.5130436999999999E-2</v>
+        <v>7.1705098999999994E-2</v>
       </c>
       <c r="G42">
         <v>0.44446838700000002</v>
@@ -1867,13 +1867,13 @@
         <v>6.7572534480000002</v>
       </c>
       <c r="D43">
-        <v>3.8049964999999998E-2</v>
+        <v>4.0843774999999999E-2</v>
       </c>
       <c r="E43">
         <v>3.3984709729999998</v>
       </c>
       <c r="F43">
-        <v>7.7114314000000003E-2</v>
+        <v>7.6926931000000004E-2</v>
       </c>
       <c r="G43">
         <v>0.42812540799999999</v>
@@ -1902,13 +1902,13 @@
         <v>6.7274411389999997</v>
       </c>
       <c r="D44">
-        <v>4.2709535E-2</v>
+        <v>3.6714162000000002E-2</v>
       </c>
       <c r="E44">
         <v>3.3790248379999999</v>
       </c>
       <c r="F44">
-        <v>6.3068787000000001E-2</v>
+        <v>7.4999692000000007E-2</v>
       </c>
       <c r="G44">
         <v>0.437516511</v>
@@ -1937,13 +1937,13 @@
         <v>6.7928087010000002</v>
       </c>
       <c r="D45">
-        <v>2.6550580000000001E-2</v>
+        <v>3.7976254000000001E-2</v>
       </c>
       <c r="E45">
         <v>3.3875825210000001</v>
       </c>
       <c r="F45">
-        <v>7.7325064999999998E-2</v>
+        <v>7.4384567999999998E-2</v>
       </c>
       <c r="G45">
         <v>0.426454318</v>
@@ -1972,13 +1972,13 @@
         <v>6.7418636899999997</v>
       </c>
       <c r="D46">
-        <v>4.7733452000000003E-2</v>
+        <v>3.9044927E-2</v>
       </c>
       <c r="E46">
         <v>3.37108645</v>
       </c>
       <c r="F46">
-        <v>6.2579199000000002E-2</v>
+        <v>8.1093950999999997E-2</v>
       </c>
       <c r="G46">
         <v>0.434786004</v>
@@ -2007,13 +2007,13 @@
         <v>6.7558962889999998</v>
       </c>
       <c r="D47">
-        <v>3.2452795999999999E-2</v>
+        <v>4.3664280999999999E-2</v>
       </c>
       <c r="E47">
         <v>3.5067154519999999</v>
       </c>
       <c r="F47">
-        <v>8.4126053000000006E-2</v>
+        <v>7.6065387999999998E-2</v>
       </c>
       <c r="G47">
         <v>0.43626723099999998</v>
@@ -2042,13 +2042,13 @@
         <v>6.4900954549999996</v>
       </c>
       <c r="D48">
-        <v>4.8092870000000003E-2</v>
+        <v>4.3480183999999998E-2</v>
       </c>
       <c r="E48">
         <v>3.3977430370000001</v>
       </c>
       <c r="F48">
-        <v>6.1307932000000002E-2</v>
+        <v>7.2677103000000007E-2</v>
       </c>
       <c r="G48">
         <v>0.40808601100000003</v>
@@ -2077,13 +2077,13 @@
         <v>6.1345136409999999</v>
       </c>
       <c r="D49">
-        <v>3.6115166999999997E-2</v>
+        <v>4.9993538999999997E-2</v>
       </c>
       <c r="E49">
         <v>3.4649905969999999</v>
       </c>
       <c r="F49">
-        <v>9.0481606000000006E-2</v>
+        <v>7.2932758E-2</v>
       </c>
       <c r="G49">
         <v>0.42016250500000002</v>
@@ -2112,13 +2112,13 @@
         <v>5.8308630859999999</v>
       </c>
       <c r="D50">
-        <v>3.2586851E-2</v>
+        <v>4.1213477999999998E-2</v>
       </c>
       <c r="E50">
         <v>3.5496905810000001</v>
       </c>
       <c r="F50">
-        <v>5.9739113000000003E-2</v>
+        <v>7.2501811999999999E-2</v>
       </c>
       <c r="G50">
         <v>0.43224002099999997</v>
@@ -2147,13 +2147,13 @@
         <v>5.9460501189999997</v>
       </c>
       <c r="D51">
-        <v>3.5094734000000002E-2</v>
+        <v>3.3557333000000002E-2</v>
       </c>
       <c r="E51">
         <v>3.652768821</v>
       </c>
       <c r="F51">
-        <v>7.8214756999999996E-2</v>
+        <v>7.8692631999999998E-2</v>
       </c>
       <c r="G51">
         <v>0.42360277400000002</v>
@@ -2182,13 +2182,13 @@
         <v>6.0820971860000004</v>
       </c>
       <c r="D52">
-        <v>4.2928885E-2</v>
+        <v>5.0209075999999998E-2</v>
       </c>
       <c r="E52">
         <v>3.776898337</v>
       </c>
       <c r="F52">
-        <v>6.3469448999999997E-2</v>
+        <v>7.1031119000000004E-2</v>
       </c>
       <c r="G52">
         <v>0.34130410799999999</v>
@@ -2217,13 +2217,13 @@
         <v>6.2920211970000004</v>
       </c>
       <c r="D53">
-        <v>3.9535184000000001E-2</v>
+        <v>2.7989058000000001E-2</v>
       </c>
       <c r="E53">
         <v>3.8898979370000002</v>
       </c>
       <c r="F53">
-        <v>8.2237096999999995E-2</v>
+        <v>6.3660069E-2</v>
       </c>
       <c r="G53">
         <v>0.422546109</v>
@@ -2252,13 +2252,13 @@
         <v>5.9674769249999997</v>
       </c>
       <c r="D54">
-        <v>3.3154608000000002E-2</v>
+        <v>4.0069884E-2</v>
       </c>
       <c r="E54">
         <v>3.8907050160000001</v>
       </c>
       <c r="F54">
-        <v>6.2273909000000002E-2</v>
+        <v>7.2146448000000002E-2</v>
       </c>
       <c r="G54">
         <v>0.339114678</v>
@@ -2287,13 +2287,13 @@
         <v>6.1348054999999997</v>
       </c>
       <c r="D55">
-        <v>4.0265520999999999E-2</v>
+        <v>5.0923313999999997E-2</v>
       </c>
       <c r="E55">
         <v>3.8851859690000001</v>
       </c>
       <c r="F55">
-        <v>8.7380157E-2</v>
+        <v>7.1512038E-2</v>
       </c>
       <c r="G55">
         <v>0.42050279699999998</v>
@@ -2322,13 +2322,13 @@
         <v>6.1917032069999998</v>
       </c>
       <c r="D56">
-        <v>4.8199198999999998E-2</v>
+        <v>3.2884984999999999E-2</v>
       </c>
       <c r="E56">
         <v>3.8731616820000001</v>
       </c>
       <c r="F56">
-        <v>5.9274592000000001E-2</v>
+        <v>7.2297056999999998E-2</v>
       </c>
       <c r="G56">
         <v>0.42233470299999998</v>
@@ -2357,13 +2357,13 @@
         <v>6.5474459390000002</v>
       </c>
       <c r="D57">
-        <v>3.3782725E-2</v>
+        <v>4.4012458999999997E-2</v>
       </c>
       <c r="E57">
         <v>3.8558283050000002</v>
       </c>
       <c r="F57">
-        <v>7.6241215000000001E-2</v>
+        <v>7.1855617999999996E-2</v>
       </c>
       <c r="G57">
         <v>0.38982883899999998</v>
@@ -2392,13 +2392,13 @@
         <v>6.8064456419999999</v>
       </c>
       <c r="D58">
-        <v>4.4223973E-2</v>
+        <v>3.6094598999999998E-2</v>
       </c>
       <c r="E58">
         <v>3.861625037</v>
       </c>
       <c r="F58">
-        <v>6.3600340000000005E-2</v>
+        <v>6.9983384999999995E-2</v>
       </c>
       <c r="G58">
         <v>0.42470791499999999</v>
@@ -2427,13 +2427,13 @@
         <v>6.7313048899999997</v>
       </c>
       <c r="D59">
-        <v>5.2563836000000003E-2</v>
+        <v>4.0014101000000003E-2</v>
       </c>
       <c r="E59">
         <v>3.8634339999999998</v>
       </c>
       <c r="F59">
-        <v>7.8946621999999994E-2</v>
+        <v>7.3045429999999995E-2</v>
       </c>
       <c r="G59">
         <v>0.34153615599999998</v>
@@ -2462,13 +2462,13 @@
         <v>6.7258955440000001</v>
       </c>
       <c r="D60">
-        <v>4.1023540999999997E-2</v>
+        <v>4.3527142999999997E-2</v>
       </c>
       <c r="E60">
         <v>3.8359666259999998</v>
       </c>
       <c r="F60">
-        <v>6.1337323999999999E-2</v>
+        <v>7.3360758999999998E-2</v>
       </c>
       <c r="G60">
         <v>0.42401873699999998</v>
@@ -2497,13 +2497,13 @@
         <v>6.6310729259999999</v>
       </c>
       <c r="D61">
-        <v>3.9818286000000001E-2</v>
+        <v>3.6503340000000002E-2</v>
       </c>
       <c r="E61">
         <v>3.7702399089999998</v>
       </c>
       <c r="F61">
-        <v>8.1055843000000002E-2</v>
+        <v>6.9418229999999997E-2</v>
       </c>
       <c r="G61">
         <v>0.43052121900000001</v>
@@ -2532,13 +2532,13 @@
         <v>6.5618334269999998</v>
       </c>
       <c r="D62">
-        <v>2.8110231999999999E-2</v>
+        <v>3.2778086999999997E-2</v>
       </c>
       <c r="E62">
         <v>3.571803295</v>
       </c>
       <c r="F62">
-        <v>6.2479355E-2</v>
+        <v>7.4030364000000001E-2</v>
       </c>
       <c r="G62">
         <v>0.38534210899999999</v>
@@ -2567,13 +2567,13 @@
         <v>6.1818557460000001</v>
       </c>
       <c r="D63">
-        <v>4.1673268999999999E-2</v>
+        <v>2.2522161999999998E-2</v>
       </c>
       <c r="E63">
         <v>3.7570501080000001</v>
       </c>
       <c r="F63">
-        <v>7.9891028000000003E-2</v>
+        <v>7.1325284000000003E-2</v>
       </c>
       <c r="G63">
         <v>0.41291786400000002</v>
@@ -2602,13 +2602,13 @@
         <v>5.9059917559999997</v>
       </c>
       <c r="D64">
-        <v>1.8128677999999999E-2</v>
+        <v>2.2795116000000001E-2</v>
       </c>
       <c r="E64">
         <v>3.3852004419999999</v>
       </c>
       <c r="F64">
-        <v>6.3816827000000007E-2</v>
+        <v>7.1444142000000002E-2</v>
       </c>
       <c r="G64">
         <v>0.34948731100000002</v>
@@ -2637,13 +2637,13 @@
         <v>5.8373131760000003</v>
       </c>
       <c r="D65">
-        <v>1.6109003E-2</v>
+        <v>1.6111845E-2</v>
       </c>
       <c r="E65">
         <v>3.3561794260000002</v>
       </c>
       <c r="F65">
-        <v>7.9984063999999994E-2</v>
+        <v>7.5754539999999995E-2</v>
       </c>
       <c r="G65">
         <v>0.41445957100000003</v>
@@ -2672,13 +2672,13 @@
         <v>5.8429576020000003</v>
       </c>
       <c r="D66">
-        <v>2.5516193999999999E-2</v>
+        <v>1.6061588000000002E-2</v>
       </c>
       <c r="E66">
         <v>3.3580646810000001</v>
       </c>
       <c r="F66">
-        <v>6.9638340000000007E-2</v>
+        <v>7.5392645999999994E-2</v>
       </c>
       <c r="G66">
         <v>0.32140965799999999</v>
@@ -2707,13 +2707,13 @@
         <v>5.9065175779999999</v>
       </c>
       <c r="D67">
-        <v>2.1692408E-2</v>
+        <v>2.5194431999999999E-2</v>
       </c>
       <c r="E67">
         <v>3.3588034929999999</v>
       </c>
       <c r="F67">
-        <v>7.2444376000000005E-2</v>
+        <v>7.2888238999999994E-2</v>
       </c>
       <c r="G67">
         <v>0.40411016199999999</v>
@@ -2742,13 +2742,13 @@
         <v>5.8830393350000003</v>
       </c>
       <c r="D68">
-        <v>1.427872E-2</v>
+        <v>1.6354407000000001E-2</v>
       </c>
       <c r="E68">
         <v>3.3814876639999998</v>
       </c>
       <c r="F68">
-        <v>6.1604929000000003E-2</v>
+        <v>6.4607328000000006E-2</v>
       </c>
       <c r="G68">
         <v>0.325929054</v>
@@ -2777,13 +2777,13 @@
         <v>5.9110280660000001</v>
       </c>
       <c r="D69">
-        <v>1.6490512999999998E-2</v>
+        <v>1.7524267E-2</v>
       </c>
       <c r="E69">
         <v>3.6084073160000001</v>
       </c>
       <c r="F69">
-        <v>7.9583017000000006E-2</v>
+        <v>7.174643E-2</v>
       </c>
       <c r="G69">
         <v>0.39902293500000002</v>
@@ -2812,13 +2812,13 @@
         <v>6.2877796019999996</v>
       </c>
       <c r="D70">
-        <v>1.7213282E-2</v>
+        <v>1.6281286999999998E-2</v>
       </c>
       <c r="E70">
         <v>3.3894459549999998</v>
       </c>
       <c r="F70">
-        <v>6.2918506999999999E-2</v>
+        <v>7.8741441999999995E-2</v>
       </c>
       <c r="G70">
         <v>0.41759595500000002</v>
@@ -2847,13 +2847,13 @@
         <v>6.7171000919999999</v>
       </c>
       <c r="D71">
-        <v>1.5528537E-2</v>
+        <v>1.6660205000000001E-2</v>
       </c>
       <c r="E71">
         <v>3.388433864</v>
       </c>
       <c r="F71">
-        <v>7.9412627E-2</v>
+        <v>6.3365684000000005E-2</v>
       </c>
       <c r="G71">
         <v>0.35634844300000001</v>
@@ -2882,13 +2882,13 @@
         <v>6.7126098860000001</v>
       </c>
       <c r="D72">
-        <v>2.5411047999999999E-2</v>
+        <v>1.6851271000000001E-2</v>
       </c>
       <c r="E72">
         <v>3.4441603550000002</v>
       </c>
       <c r="F72">
-        <v>6.4819066999999994E-2</v>
+        <v>7.1769932999999994E-2</v>
       </c>
       <c r="G72">
         <v>0.39520422700000002</v>
@@ -2917,13 +2917,13 @@
         <v>6.7184265329999997</v>
       </c>
       <c r="D73">
-        <v>1.7196076000000001E-2</v>
+        <v>2.4364792999999999E-2</v>
       </c>
       <c r="E73">
         <v>3.480754288</v>
       </c>
       <c r="F73">
-        <v>8.6196687999999994E-2</v>
+        <v>7.3899058000000004E-2</v>
       </c>
       <c r="G73">
         <v>0.39049381999999999</v>
@@ -2952,13 +2952,13 @@
         <v>6.8338827420000001</v>
       </c>
       <c r="D74">
-        <v>1.9366096999999999E-2</v>
+        <v>2.0931272000000001E-2</v>
       </c>
       <c r="E74">
         <v>3.4612011759999999</v>
       </c>
       <c r="F74">
-        <v>5.9048493000000001E-2</v>
+        <v>7.4772329999999998E-2</v>
       </c>
       <c r="G74">
         <v>0.39972130500000003</v>
@@ -2987,13 +2987,13 @@
         <v>6.7525399119999996</v>
       </c>
       <c r="D75">
-        <v>1.6473690999999999E-2</v>
+        <v>1.6232123000000001E-2</v>
       </c>
       <c r="E75">
         <v>3.4937767970000002</v>
       </c>
       <c r="F75">
-        <v>7.7781087999999998E-2</v>
+        <v>7.1863449999999995E-2</v>
       </c>
       <c r="G75">
         <v>0.318900193</v>
@@ -3022,13 +3022,13 @@
         <v>6.1878139560000003</v>
       </c>
       <c r="D76">
-        <v>2.2407779999999999E-2</v>
+        <v>1.6597770000000001E-2</v>
       </c>
       <c r="E76">
         <v>3.5863620279999999</v>
       </c>
       <c r="F76">
-        <v>6.1866417E-2</v>
+        <v>7.5253419000000002E-2</v>
       </c>
       <c r="G76">
         <v>0.37983650099999999</v>
@@ -3057,13 +3057,13 @@
         <v>5.9212581210000002</v>
       </c>
       <c r="D77">
-        <v>1.9643003999999999E-2</v>
+        <v>1.5546252E-2</v>
       </c>
       <c r="E77">
         <v>3.7398787009999999</v>
       </c>
       <c r="F77">
-        <v>7.8123817999999998E-2</v>
+        <v>7.2197154999999999E-2</v>
       </c>
       <c r="G77">
         <v>0.30321136300000001</v>
@@ -3092,13 +3092,13 @@
         <v>5.8094383340000002</v>
       </c>
       <c r="D78">
-        <v>1.8528376999999999E-2</v>
+        <v>2.6219685E-2</v>
       </c>
       <c r="E78">
         <v>3.8429006370000001</v>
       </c>
       <c r="F78">
-        <v>7.2363308000000001E-2</v>
+        <v>7.2081825000000002E-2</v>
       </c>
       <c r="G78">
         <v>0.39433123399999997</v>
@@ -3127,13 +3127,13 @@
         <v>5.8380691179999999</v>
       </c>
       <c r="D79">
-        <v>1.6693215000000001E-2</v>
+        <v>1.7753601000000001E-2</v>
       </c>
       <c r="E79">
         <v>3.8966738319999998</v>
       </c>
       <c r="F79">
-        <v>6.9615726000000003E-2</v>
+        <v>7.5076760000000006E-2</v>
       </c>
       <c r="G79">
         <v>0.31164468200000001</v>
@@ -3162,13 +3162,13 @@
         <v>5.8616633849999999</v>
       </c>
       <c r="D80">
-        <v>1.6210616000000001E-2</v>
+        <v>1.7267039000000001E-2</v>
       </c>
       <c r="E80">
         <v>4.0198327340000004</v>
       </c>
       <c r="F80">
-        <v>7.8126730000000005E-2</v>
+        <v>6.3262218999999995E-2</v>
       </c>
       <c r="G80">
         <v>0.37818942</v>
@@ -3197,13 +3197,13 @@
         <v>5.8960147149999997</v>
       </c>
       <c r="D81">
-        <v>1.6669038000000001E-2</v>
+        <v>1.5689445999999999E-2</v>
       </c>
       <c r="E81">
         <v>3.8991016319999998</v>
       </c>
       <c r="F81">
-        <v>6.1865502000000003E-2</v>
+        <v>7.5025839999999996E-2</v>
       </c>
       <c r="G81">
         <v>0.31147192699999998</v>
@@ -3232,13 +3232,13 @@
         <v>5.8838090960000002</v>
       </c>
       <c r="D82">
-        <v>2.6100992E-2</v>
+        <v>2.4263649000000002E-2</v>
       </c>
       <c r="E82">
         <v>3.9080496409999999</v>
       </c>
       <c r="F82">
-        <v>7.5036558000000003E-2</v>
+        <v>7.1587658999999998E-2</v>
       </c>
       <c r="G82">
         <v>0.37933015599999997</v>
@@ -3267,13 +3267,13 @@
         <v>6.0407734809999996</v>
       </c>
       <c r="D83">
-        <v>1.7617642999999999E-2</v>
+        <v>2.1553486E-2</v>
       </c>
       <c r="E83">
         <v>3.870940526</v>
       </c>
       <c r="F83">
-        <v>6.8435830000000003E-2</v>
+        <v>7.3520453999999999E-2</v>
       </c>
       <c r="G83">
         <v>0.30414676400000001</v>
@@ -3302,13 +3302,13 @@
         <v>6.3946977240000002</v>
       </c>
       <c r="D84">
-        <v>1.7076830000000001E-2</v>
+        <v>1.3159202E-2</v>
       </c>
       <c r="E84">
         <v>3.8563480800000001</v>
       </c>
       <c r="F84">
-        <v>7.7614938999999994E-2</v>
+        <v>7.2897385999999995E-2</v>
       </c>
       <c r="G84">
         <v>0.38541240999999998</v>
@@ -3337,13 +3337,13 @@
         <v>6.7061559109999997</v>
       </c>
       <c r="D85">
-        <v>1.5845847E-2</v>
+        <v>1.6968429E-2</v>
       </c>
       <c r="E85">
         <v>3.8639244349999999</v>
       </c>
       <c r="F85">
-        <v>6.4006077999999994E-2</v>
+        <v>7.9892697999999998E-2</v>
       </c>
       <c r="G85">
         <v>0.31011866199999999</v>
@@ -3372,13 +3372,13 @@
         <v>6.7593392379999999</v>
       </c>
       <c r="D86">
-        <v>1.8035811999999998E-2</v>
+        <v>1.7194834999999999E-2</v>
       </c>
       <c r="E86">
         <v>3.836034223</v>
       </c>
       <c r="F86">
-        <v>7.8497401999999994E-2</v>
+        <v>7.3744071999999994E-2</v>
       </c>
       <c r="G86">
         <v>0.38112492999999997</v>
@@ -3407,13 +3407,13 @@
         <v>6.7544336569999999</v>
       </c>
       <c r="D87">
-        <v>2.2159926999999999E-2</v>
+        <v>2.5528807000000001E-2</v>
       </c>
       <c r="E87">
         <v>3.6635114020000001</v>
       </c>
       <c r="F87">
-        <v>6.3889897000000001E-2</v>
+        <v>7.2159349999999997E-2</v>
       </c>
       <c r="G87">
         <v>0.39274193800000001</v>
@@ -3442,13 +3442,13 @@
         <v>6.75197219</v>
       </c>
       <c r="D88">
-        <v>2.3069866000000001E-2</v>
+        <v>1.8485550999999999E-2</v>
       </c>
       <c r="E88">
         <v>3.506224086</v>
       </c>
       <c r="F88">
-        <v>7.1499725E-2</v>
+        <v>7.2167110000000007E-2</v>
       </c>
       <c r="G88">
         <v>0.34093900500000002</v>
@@ -3477,13 +3477,13 @@
         <v>6.5891769680000003</v>
       </c>
       <c r="D89">
-        <v>1.5027624E-2</v>
+        <v>1.6351727E-2</v>
       </c>
       <c r="E89">
         <v>3.3720092319999999</v>
       </c>
       <c r="F89">
-        <v>7.2623742000000005E-2</v>
+        <v>7.3699124000000005E-2</v>
       </c>
       <c r="G89">
         <v>0.38244368699999998</v>
@@ -3512,13 +3512,13 @@
         <v>6.6257840200000002</v>
       </c>
       <c r="D90">
-        <v>1.5935680000000001E-2</v>
+        <v>1.8154190000000001E-2</v>
       </c>
       <c r="E90">
         <v>3.3561675260000001</v>
       </c>
       <c r="F90">
-        <v>8.2183142000000001E-2</v>
+        <v>7.4006078000000003E-2</v>
       </c>
       <c r="G90">
         <v>0.38983879999999999</v>
@@ -3547,13 +3547,13 @@
         <v>6.4876199669999997</v>
       </c>
       <c r="D91">
-        <v>2.5068841000000001E-2</v>
+        <v>1.4522643E-2</v>
       </c>
       <c r="E91">
         <v>3.3546215259999999</v>
       </c>
       <c r="F91">
-        <v>6.2314587999999997E-2</v>
+        <v>7.3641848999999995E-2</v>
       </c>
       <c r="G91">
         <v>0.37374071800000003</v>
@@ -3582,13 +3582,13 @@
         <v>5.8825942680000001</v>
       </c>
       <c r="D92">
-        <v>1.6770526000000001E-2</v>
+        <v>2.3956926999999999E-2</v>
       </c>
       <c r="E92">
         <v>3.377050535</v>
       </c>
       <c r="F92">
-        <v>7.6234213999999995E-2</v>
+        <v>7.4552648999999999E-2</v>
       </c>
       <c r="G92">
         <v>0.37999425100000001</v>
@@ -3617,13 +3617,13 @@
         <v>5.9292875540000001</v>
       </c>
       <c r="D93">
-        <v>1.7264148E-2</v>
+        <v>1.8540495000000001E-2</v>
       </c>
       <c r="E93">
         <v>3.3836077790000001</v>
       </c>
       <c r="F93">
-        <v>5.992401E-2</v>
+        <v>6.3202874000000006E-2</v>
       </c>
       <c r="G93">
         <v>0.37731865199999998</v>
@@ -3652,13 +3652,13 @@
         <v>5.9210029229999996</v>
       </c>
       <c r="D94">
-        <v>2.1880584000000002E-2</v>
+        <v>1.6594854999999999E-2</v>
       </c>
       <c r="E94">
         <v>3.4096648169999999</v>
       </c>
       <c r="F94">
-        <v>7.6604835999999996E-2</v>
+        <v>8.3673699000000004E-2</v>
       </c>
       <c r="G94">
         <v>0.379370971</v>
@@ -3687,13 +3687,13 @@
         <v>5.8628689789999999</v>
       </c>
       <c r="D95">
-        <v>1.6680613E-2</v>
+        <v>1.8966185E-2</v>
       </c>
       <c r="E95">
         <v>3.4524089509999998</v>
       </c>
       <c r="F95">
-        <v>6.2423459000000001E-2</v>
+        <v>6.3909789999999994E-2</v>
       </c>
       <c r="G95">
         <v>0.34096192800000003</v>
@@ -3722,13 +3722,13 @@
         <v>5.906871217</v>
       </c>
       <c r="D96">
-        <v>1.8301232000000001E-2</v>
+        <v>3.0263559999999998E-2</v>
       </c>
       <c r="E96">
         <v>3.4525597979999998</v>
       </c>
       <c r="F96">
-        <v>7.8534490999999998E-2</v>
+        <v>9.1689497999999994E-2</v>
       </c>
       <c r="G96">
         <v>0.36233036200000002</v>
@@ -3757,13 +3757,13 @@
         <v>5.9596102799999997</v>
       </c>
       <c r="D97">
-        <v>1.8155088E-2</v>
+        <v>2.1130990999999998E-2</v>
       </c>
       <c r="E97">
         <v>3.5275222980000001</v>
       </c>
       <c r="F97">
-        <v>6.2415656999999999E-2</v>
+        <v>7.1195543999999999E-2</v>
       </c>
       <c r="G97">
         <v>0.29996235599999999</v>
@@ -3792,13 +3792,13 @@
         <v>6.1665909719999998</v>
       </c>
       <c r="D98">
-        <v>1.8010912E-2</v>
+        <v>1.6468241000000002E-2</v>
       </c>
       <c r="E98">
         <v>3.619824098</v>
       </c>
       <c r="F98">
-        <v>7.9025935000000005E-2</v>
+        <v>7.2892125000000002E-2</v>
       </c>
       <c r="G98">
         <v>0.33715040800000001</v>
@@ -3827,13 +3827,13 @@
         <v>6.6657192109999999</v>
       </c>
       <c r="D99">
-        <v>1.3010585E-2</v>
+        <v>1.849872E-2</v>
       </c>
       <c r="E99">
         <v>3.5984561230000001</v>
       </c>
       <c r="F99">
-        <v>6.2534625999999996E-2</v>
+        <v>7.2219488999999998E-2</v>
       </c>
       <c r="G99">
         <v>0.36457062000000001</v>
@@ -3862,13 +3862,13 @@
         <v>6.9104342650000001</v>
       </c>
       <c r="D100">
-        <v>2.6409605999999999E-2</v>
+        <v>1.6482912999999998E-2</v>
       </c>
       <c r="E100">
         <v>3.568686612</v>
       </c>
       <c r="F100">
-        <v>7.8132227999999998E-2</v>
+        <v>7.1622415999999994E-2</v>
       </c>
       <c r="G100">
         <v>0.36317798200000001</v>
@@ -3897,13 +3897,13 @@
         <v>6.7813263160000004</v>
       </c>
       <c r="D101">
-        <v>1.8503937000000002E-2</v>
+        <v>2.4617606E-2</v>
       </c>
       <c r="E101">
         <v>3.6044978059999999</v>
       </c>
       <c r="F101">
-        <v>6.3752233000000005E-2</v>
+        <v>7.6134052999999993E-2</v>
       </c>
       <c r="G101">
         <v>0.38841946500000002</v>
@@ -3932,13 +3932,13 @@
         <v>6.74930056</v>
       </c>
       <c r="D102">
-        <v>1.8370239E-2</v>
+        <v>2.0663711000000001E-2</v>
       </c>
       <c r="E102">
         <v>3.7313264510000002</v>
       </c>
       <c r="F102">
-        <v>8.0837939999999997E-2</v>
+        <v>7.1268961000000006E-2</v>
       </c>
       <c r="G102">
         <v>0.29460565500000002</v>
@@ -3967,13 +3967,13 @@
         <v>6.8841648439999998</v>
       </c>
       <c r="D103">
-        <v>1.7353182000000002E-2</v>
+        <v>1.9889E-2</v>
       </c>
       <c r="E103">
         <v>3.8385802199999999</v>
       </c>
       <c r="F103">
-        <v>6.6982578000000001E-2</v>
+        <v>7.5194406000000005E-2</v>
       </c>
       <c r="G103">
         <v>0.365379183</v>
@@ -4002,13 +4002,13 @@
         <v>6.8968012319999996</v>
       </c>
       <c r="D104">
-        <v>2.6963236000000002E-2</v>
+        <v>1.5616104E-2</v>
       </c>
       <c r="E104">
         <v>3.9029750440000002</v>
       </c>
       <c r="F104">
-        <v>8.3310226000000001E-2</v>
+        <v>7.2524687000000004E-2</v>
       </c>
       <c r="G104">
         <v>0.37117927000000001</v>
@@ -4037,13 +4037,13 @@
         <v>6.4740136289999999</v>
       </c>
       <c r="D105">
-        <v>1.8225198000000001E-2</v>
+        <v>2.1441700000000001E-2</v>
       </c>
       <c r="E105">
         <v>3.880911615</v>
       </c>
       <c r="F105">
-        <v>5.9335786000000001E-2</v>
+        <v>7.0238815999999996E-2</v>
       </c>
       <c r="G105">
         <v>0.37506223799999999</v>
@@ -4072,13 +4072,13 @@
         <v>5.975044778</v>
       </c>
       <c r="D106">
-        <v>1.8912780000000001E-2</v>
+        <v>2.0425510000000001E-2</v>
       </c>
       <c r="E106">
         <v>3.8825780750000001</v>
       </c>
       <c r="F106">
-        <v>7.7342593000000001E-2</v>
+        <v>7.4204457000000001E-2</v>
       </c>
       <c r="G106">
         <v>0.30344638800000001</v>
@@ -4107,13 +4107,13 @@
         <v>5.8203138650000001</v>
       </c>
       <c r="D107">
-        <v>1.5178499999999999E-2</v>
+        <v>1.9340999000000001E-2</v>
       </c>
       <c r="E107">
         <v>3.8660384250000002</v>
       </c>
       <c r="F107">
-        <v>6.2627848E-2</v>
+        <v>7.3580200999999998E-2</v>
       </c>
       <c r="G107">
         <v>0.360770374</v>
@@ -4142,13 +4142,13 @@
         <v>5.8322939659999999</v>
       </c>
       <c r="D108">
-        <v>1.6641197999999999E-2</v>
+        <v>1.4746443999999999E-2</v>
       </c>
       <c r="E108">
         <v>4.2011189900000003</v>
       </c>
       <c r="F108">
-        <v>7.9747135999999996E-2</v>
+        <v>7.2839745999999997E-2</v>
       </c>
       <c r="G108">
         <v>0.37579784599999999</v>
@@ -4177,13 +4177,13 @@
         <v>5.8631718770000001</v>
       </c>
       <c r="D109">
-        <v>2.4491676E-2</v>
+        <v>2.5108482000000001E-2</v>
       </c>
       <c r="E109">
         <v>3.9609726850000002</v>
       </c>
       <c r="F109">
-        <v>6.4105766999999994E-2</v>
+        <v>7.4428139000000004E-2</v>
       </c>
       <c r="G109">
         <v>0.37112771300000003</v>
@@ -4212,13 +4212,13 @@
         <v>5.861038958</v>
       </c>
       <c r="D110">
-        <v>2.1500036E-2</v>
+        <v>1.9359062E-2</v>
       </c>
       <c r="E110">
         <v>3.8979813110000001</v>
       </c>
       <c r="F110">
-        <v>7.6987949999999999E-2</v>
+        <v>6.9638730999999995E-2</v>
       </c>
       <c r="G110">
         <v>0.36283425000000002</v>
@@ -4247,13 +4247,13 @@
         <v>5.9120055929999999</v>
       </c>
       <c r="D111">
-        <v>2.2262984999999999E-2</v>
+        <v>1.7316807E-2</v>
       </c>
       <c r="E111">
         <v>3.7471239810000001</v>
       </c>
       <c r="F111">
-        <v>6.3163031999999994E-2</v>
+        <v>7.3047307000000006E-2</v>
       </c>
       <c r="G111">
         <v>0.35387742300000002</v>
@@ -4282,13 +4282,13 @@
         <v>6.0272835159999998</v>
       </c>
       <c r="D112">
-        <v>1.5962061999999999E-2</v>
+        <v>1.6213576E-2</v>
       </c>
       <c r="E112">
         <v>4.6842159639999998</v>
       </c>
       <c r="F112">
-        <v>7.6759571999999998E-2</v>
+        <v>6.4867356000000001E-2</v>
       </c>
       <c r="G112">
         <v>0.38105628800000002</v>
@@ -4317,13 +4317,13 @@
         <v>6.0177214240000003</v>
       </c>
       <c r="D113">
-        <v>2.7606049000000001E-2</v>
+        <v>1.6380563000000001E-2</v>
       </c>
       <c r="E113">
         <v>3.5176560800000001</v>
       </c>
       <c r="F113">
-        <v>6.3325785999999995E-2</v>
+        <v>7.5325887999999994E-2</v>
       </c>
       <c r="G113">
         <v>0.29090901200000002</v>
@@ -4352,13 +4352,13 @@
         <v>6.3348024260000004</v>
       </c>
       <c r="D114">
-        <v>1.6298476999999999E-2</v>
+        <v>2.1313454999999999E-2</v>
       </c>
       <c r="E114">
         <v>3.4326237389999998</v>
       </c>
       <c r="F114">
-        <v>7.7813018999999997E-2</v>
+        <v>7.2915213000000006E-2</v>
       </c>
       <c r="G114">
         <v>0.36397048999999998</v>
@@ -4387,13 +4387,13 @@
         <v>6.6868604510000003</v>
       </c>
       <c r="D115">
-        <v>1.7839721999999999E-2</v>
+        <v>2.1154246000000002E-2</v>
       </c>
       <c r="E115">
         <v>3.3592806500000001</v>
       </c>
       <c r="F115">
-        <v>6.1673823000000003E-2</v>
+        <v>7.6828524999999995E-2</v>
       </c>
       <c r="G115">
         <v>0.36528501099999999</v>
@@ -4422,13 +4422,13 @@
         <v>6.7193650209999998</v>
       </c>
       <c r="D116">
-        <v>1.6625404E-2</v>
+        <v>1.7029282999999999E-2</v>
       </c>
       <c r="E116">
         <v>3.3723920230000002</v>
       </c>
       <c r="F116">
-        <v>8.1501220999999999E-2</v>
+        <v>7.3726602000000002E-2</v>
       </c>
       <c r="G116">
         <v>0.34655532999999999</v>
@@ -4457,13 +4457,13 @@
         <v>6.7470527899999997</v>
       </c>
       <c r="D117">
-        <v>2.8894724E-2</v>
+        <v>1.7760939E-2</v>
       </c>
       <c r="E117">
         <v>3.368671768</v>
       </c>
       <c r="F117">
-        <v>5.8852387999999999E-2</v>
+        <v>6.5655341000000006E-2</v>
       </c>
       <c r="G117">
         <v>0.36375342100000002</v>
@@ -4492,13 +4492,13 @@
         <v>6.6145936670000003</v>
       </c>
       <c r="D118">
-        <v>1.6325672999999999E-2</v>
+        <v>1.5806362000000001E-2</v>
       </c>
       <c r="E118">
         <v>3.378148323</v>
       </c>
       <c r="F118">
-        <v>8.1227302000000001E-2</v>
+        <v>7.3632136000000001E-2</v>
       </c>
       <c r="G118">
         <v>0.38006147200000001</v>
@@ -4527,13 +4527,13 @@
         <v>6.7072453989999996</v>
       </c>
       <c r="D119">
-        <v>1.6630472E-2</v>
+        <v>2.7227947999999998E-2</v>
       </c>
       <c r="E119">
         <v>3.3733259100000001</v>
       </c>
       <c r="F119">
-        <v>7.6407847000000001E-2</v>
+        <v>7.5474594000000006E-2</v>
       </c>
       <c r="G119">
         <v>0.34439593699999999</v>
@@ -4562,13 +4562,13 @@
         <v>6.5793035849999999</v>
       </c>
       <c r="D120">
-        <v>1.5750571000000001E-2</v>
+        <v>1.7997534999999999E-2</v>
       </c>
       <c r="E120">
         <v>3.3811276029999999</v>
       </c>
       <c r="F120">
-        <v>6.4889583000000001E-2</v>
+        <v>6.8679639000000001E-2</v>
       </c>
       <c r="G120">
         <v>0.36676439300000002</v>
@@ -4597,13 +4597,13 @@
         <v>6.0535924200000002</v>
       </c>
       <c r="D121">
-        <v>1.8308456000000001E-2</v>
+        <v>1.6335602000000001E-2</v>
       </c>
       <c r="E121">
         <v>3.4765533030000002</v>
       </c>
       <c r="F121">
-        <v>6.8189754000000005E-2</v>
+        <v>8.1442975000000001E-2</v>
       </c>
       <c r="G121">
         <v>0.36352676900000003</v>
